--- a/Statystyki_2018/Template/oktr.xlsx
+++ b/Statystyki_2018/Template/oktr.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz3" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Arkusz2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Arkusz3" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Arkusz2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t xml:space="preserve">Lp</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nsm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ns</t>
   </si>
   <si>
     <t xml:space="preserve">RC</t>
@@ -363,6 +360,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -427,12 +428,8 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -527,181 +524,277 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:AE5"/>
+  <dimension ref="A3:AC5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.52"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="8" t="s">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="10" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="12" t="s">
+      <c r="P5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="Q5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="R5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="13" t="s">
+      <c r="S5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="T5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="U5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="V5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="W5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Y5" s="13" t="s">
+      <c r="X5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Z5" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -710,9 +803,9 @@
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:E4"/>
     <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:P4"/>
-    <mergeCell ref="Q3:Z4"/>
-    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="G3:O4"/>
+    <mergeCell ref="P3:X4"/>
+    <mergeCell ref="Y3:Y5"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -731,28 +824,28 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="A1" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
@@ -766,37 +859,37 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="J3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -813,11 +906,11 @@
       <c r="K4" s="23"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="17"/>
     </row>
   </sheetData>
